--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_345__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_345__Reeval_Halton_Modell_1.1.xlsx
@@ -5993,7 +5993,7 @@
                   <c:v>45.07902526855469</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42.77593994140625</c:v>
@@ -6008,61 +6008,61 @@
                   <c:v>14.8657283782959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.745298385620117</c:v>
+                  <c:v>7.745296955108643</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.45056915283203</c:v>
+                  <c:v>49.45056533813477</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44.371826171875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.37836074829102</c:v>
+                  <c:v>43.37836837768555</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.916159152984619</c:v>
+                  <c:v>6.916157722473145</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.4514724314212799</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.98683166503906</c:v>
+                  <c:v>42.98683547973633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44.802490234375</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>38.42991638183594</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.74407958984375</c:v>
+                  <c:v>15.74407863616943</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43.49832534790039</c:v>
@@ -6071,37 +6071,37 @@
                   <c:v>42.73934936523438</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.632951259613037</c:v>
+                  <c:v>4.632952690124512</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.34015655517578</c:v>
+                  <c:v>42.34014892578125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-0.374303787946701</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.88596111536026</c:v>
+                  <c:v>0.8859635591506958</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43.28377151489258</c:v>
@@ -6113,13 +6113,13 @@
                   <c:v>2.467380523681641</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>46.88029861450195</c:v>
@@ -6131,13 +6131,13 @@
                   <c:v>17.30773544311523</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>48.54524230957031</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.893325805664062</c:v>
+                  <c:v>8.89332389831543</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>39.10784912109375</c:v>
@@ -6149,46 +6149,46 @@
                   <c:v>17.60222434997559</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.18367004394531</c:v>
+                  <c:v>48.18366622924805</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>42.67814254760742</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>44.69903564453125</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>6.770572662353516</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42.89409255981445</c:v>
+                  <c:v>42.89409637451172</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>31.06673049926758</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>43.09260940551758</c:v>
@@ -6206,70 +6206,70 @@
                   <c:v>48.51243591308594</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>44.66987228393555</c:v>
+                  <c:v>44.66987609863281</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>38.79321670532227</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>19.69191551208496</c:v>
+                  <c:v>19.69191741943359</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>46.38417053222656</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.05829906463623</c:v>
+                  <c:v>8.058297157287598</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>27.54735565185547</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.36836051940918</c:v>
+                  <c:v>7.368361949920654</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>49.83017349243164</c:v>
+                  <c:v>49.83018112182617</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>44.00569534301758</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>17.49516105651855</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>43.84292221069336</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>20.98153495788574</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.993135929107666</c:v>
+                  <c:v>4.993133544921875</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>43.75262832641602</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.08876211941242218</c:v>
+                  <c:v>-0.08876457065343857</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.5845800042152405</c:v>
+                  <c:v>-0.5845775604248047</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>43.35025024414062</c:v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>7.745298385620117</v>
+        <v>7.745296955108643</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>49.45056915283203</v>
+        <v>49.45056533813477</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>43.37836074829102</v>
+        <v>43.37836837768555</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6.916159152984619</v>
+        <v>6.916157722473145</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>42.98683166503906</v>
+        <v>42.98683547973633</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>15.74407958984375</v>
+        <v>15.74407863616943</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>4.632951259613037</v>
+        <v>4.632952690124512</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>42.34015655517578</v>
+        <v>42.34014892578125</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.88596111536026</v>
+        <v>0.8859635591506958</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>8.893325805664062</v>
+        <v>8.89332389831543</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>48.18367004394531</v>
+        <v>48.18366622924805</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>42.89409255981445</v>
+        <v>42.89409637451172</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>44.66987228393555</v>
+        <v>44.66987609863281</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>19.69191551208496</v>
+        <v>19.69191741943359</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>8.05829906463623</v>
+        <v>8.058297157287598</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>7.36836051940918</v>
+        <v>7.368361949920654</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>49.83017349243164</v>
+        <v>49.83018112182617</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>4.993135929107666</v>
+        <v>4.993133544921875</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>-0.08876211941242218</v>
+        <v>-0.08876457065343857</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-0.5845800042152405</v>
+        <v>-0.5845775604248047</v>
       </c>
     </row>
     <row r="97" spans="1:6">
